--- a/data/train/TRAIN_CATEGORICAL_METADATA_imputed_Jing.xlsx
+++ b/data/train/TRAIN_CATEGORICAL_METADATA_imputed_Jing.xlsx
@@ -2223,7 +2223,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E52">
@@ -2367,7 +2367,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E56">
@@ -4131,7 +4131,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E105">
@@ -4815,7 +4815,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E124">
@@ -7479,7 +7479,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E198">
@@ -7551,7 +7551,7 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E200">
@@ -7803,7 +7803,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E207">
@@ -9135,7 +9135,7 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E244">
@@ -10719,7 +10719,7 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E288">
@@ -12015,7 +12015,7 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E324">
@@ -12375,7 +12375,7 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E334">
